--- a/radar.xlsx
+++ b/radar.xlsx
@@ -126,11 +126,11 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="26"/>
+  <style val="2"/>
   <chart>
     <plotArea>
       <radarChart>
-        <radarStyle val="standard"/>
+        <radarStyle val="marker"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
@@ -204,7 +204,6 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="1"/>
         <axPos val="l"/>
         <majorGridlines/>
         <majorTickMark val="none"/>

--- a/radar.xlsx
+++ b/radar.xlsx
@@ -126,7 +126,6 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="2"/>
   <chart>
     <plotArea>
       <radarChart>

--- a/radar.xlsx
+++ b/radar.xlsx
@@ -126,6 +126,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="2"/>
   <chart>
     <plotArea>
       <radarChart>
